--- a/results/mp/tinybert/toy-spam/confidence/168/stop-words-topk-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/168/stop-words-topk-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,27 +46,27 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>however</t>
+    <t>junk</t>
   </si>
   <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
@@ -79,6 +79,9 @@
     <t>apart</t>
   </si>
   <si>
+    <t>difficult</t>
+  </si>
+  <si>
     <t>ok</t>
   </si>
   <si>
@@ -88,24 +91,30 @@
     <t>thought</t>
   </si>
   <si>
+    <t>item</t>
+  </si>
+  <si>
     <t>size</t>
   </si>
   <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
     <t>would</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
     <t>money</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>product</t>
   </si>
   <si>
@@ -115,9 +124,6 @@
     <t>use</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
@@ -133,6 +139,9 @@
     <t>favorite</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
@@ -149,9 +158,6 @@
   </si>
   <si>
     <t>loved</t>
-  </si>
-  <si>
-    <t>friends</t>
   </si>
   <si>
     <t>fun</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -526,10 +532,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -587,13 +593,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9782608695652174</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -605,10 +611,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K3">
         <v>0.8461538461538461</v>
@@ -637,13 +643,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8181818181818182</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -655,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K4">
-        <v>0.8214285714285714</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L4">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M4">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -679,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -687,13 +693,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7365591397849462</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="C5">
-        <v>137</v>
+        <v>53</v>
       </c>
       <c r="D5">
-        <v>137</v>
+        <v>53</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -705,19 +711,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K5">
-        <v>0.6774193548387096</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="L5">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M5">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -729,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -737,13 +743,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6990291262135923</v>
+        <v>0.7365591397849462</v>
       </c>
       <c r="C6">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D6">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -755,19 +761,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K6">
-        <v>0.4202898550724637</v>
+        <v>0.46875</v>
       </c>
       <c r="L6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -779,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -787,13 +793,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6824324324324325</v>
+        <v>0.71875</v>
       </c>
       <c r="C7">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="D7">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -805,19 +811,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K7">
-        <v>0.3344262295081967</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="L7">
-        <v>408</v>
+        <v>30</v>
       </c>
       <c r="M7">
-        <v>408</v>
+        <v>30</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -829,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>812</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -837,13 +843,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.676056338028169</v>
+        <v>0.7038834951456311</v>
       </c>
       <c r="C8">
-        <v>48</v>
+        <v>145</v>
       </c>
       <c r="D8">
-        <v>48</v>
+        <v>145</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -855,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K8">
-        <v>0.3041606886657102</v>
+        <v>0.3459016393442623</v>
       </c>
       <c r="L8">
-        <v>212</v>
+        <v>422</v>
       </c>
       <c r="M8">
-        <v>212</v>
+        <v>422</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -879,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>485</v>
+        <v>798</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -887,13 +893,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.640625</v>
+        <v>0.6283783783783784</v>
       </c>
       <c r="C9">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="D9">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -905,19 +911,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K9">
-        <v>0.2427385892116183</v>
+        <v>0.2998565279770445</v>
       </c>
       <c r="L9">
-        <v>117</v>
+        <v>209</v>
       </c>
       <c r="M9">
-        <v>117</v>
+        <v>209</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -929,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>365</v>
+        <v>488</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -937,13 +943,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5882352941176471</v>
+        <v>0.6</v>
       </c>
       <c r="C10">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -955,19 +961,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K10">
-        <v>0.1807228915662651</v>
+        <v>0.2489626556016598</v>
       </c>
       <c r="L10">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="M10">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -979,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>136</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -987,13 +993,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5272727272727272</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1005,19 +1011,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K11">
-        <v>0.1681957186544343</v>
+        <v>0.2168674698795181</v>
       </c>
       <c r="L11">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="M11">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1029,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>272</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1037,13 +1043,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4811594202898551</v>
+        <v>0.4753623188405797</v>
       </c>
       <c r="C12">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D12">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1055,19 +1061,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K12">
-        <v>0.164021164021164</v>
+        <v>0.1896024464831804</v>
       </c>
       <c r="L12">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="M12">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1079,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>158</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1087,13 +1093,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4409448818897638</v>
+        <v>0.4173228346456693</v>
       </c>
       <c r="C13">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D13">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1105,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K13">
         <v>0.08413672217353199</v>
@@ -1137,13 +1143,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4337349397590362</v>
+        <v>0.4096385542168675</v>
       </c>
       <c r="C14">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D14">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1155,31 +1161,31 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K14">
-        <v>0.03958468526930565</v>
+        <v>0.03311688311688311</v>
       </c>
       <c r="L14">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="M14">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>1480</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1213,13 +1219,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3515625</v>
+        <v>0.3370786516853932</v>
       </c>
       <c r="C16">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D16">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1231,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>83</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1239,13 +1245,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3270142180094787</v>
+        <v>0.328125</v>
       </c>
       <c r="C17">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="D17">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1257,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>142</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1265,13 +1271,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.301980198019802</v>
+        <v>0.2796208530805687</v>
       </c>
       <c r="C18">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D18">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1283,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1291,13 +1297,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2474226804123711</v>
+        <v>0.2722772277227723</v>
       </c>
       <c r="C19">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D19">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1309,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1317,13 +1323,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.1839762611275964</v>
+        <v>0.213768115942029</v>
       </c>
       <c r="C20">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="D20">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1335,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>550</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1343,13 +1349,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.18</v>
+        <v>0.1958762886597938</v>
       </c>
       <c r="C21">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D21">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1361,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1369,13 +1375,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1772151898734177</v>
+        <v>0.1847133757961783</v>
       </c>
       <c r="C22">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="D22">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1387,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>260</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1395,13 +1401,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1521739130434783</v>
+        <v>0.1828571428571429</v>
       </c>
       <c r="C23">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D23">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1413,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>234</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1421,13 +1427,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1518987341772152</v>
+        <v>0.1810089020771513</v>
       </c>
       <c r="C24">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="D24">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1439,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>268</v>
+        <v>552</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1447,13 +1453,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1387665198237885</v>
+        <v>0.180379746835443</v>
       </c>
       <c r="C25">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D25">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1465,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>391</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1473,13 +1479,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1120689655172414</v>
+        <v>0.1582278481012658</v>
       </c>
       <c r="C26">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D26">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1491,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>309</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1499,13 +1505,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.0821917808219178</v>
+        <v>0.1448598130841121</v>
       </c>
       <c r="C27">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D27">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1517,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>335</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1525,25 +1531,25 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.0738255033557047</v>
+        <v>0.1387665198237885</v>
       </c>
       <c r="C28">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="D28">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="E28">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>414</v>
+        <v>391</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1551,25 +1557,77 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.06095551894563427</v>
+        <v>0.1005747126436782</v>
       </c>
       <c r="C29">
+        <v>35</v>
+      </c>
+      <c r="D29">
+        <v>35</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>0.07945205479452055</v>
+      </c>
+      <c r="C30">
+        <v>29</v>
+      </c>
+      <c r="D30">
+        <v>29</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>0.06085526315789474</v>
+      </c>
+      <c r="C31">
         <v>37</v>
       </c>
-      <c r="D29">
-        <v>38</v>
-      </c>
-      <c r="E29">
-        <v>0.03</v>
-      </c>
-      <c r="F29">
-        <v>0.97</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>570</v>
+      <c r="D31">
+        <v>37</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>571</v>
       </c>
     </row>
   </sheetData>
